--- a/184c-people-and-companies/184c_tables_info.xlsx
+++ b/184c-people-and-companies/184c_tables_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>people</t>
   </si>
@@ -55,6 +55,27 @@
   </si>
   <si>
     <t>nil</t>
+  </si>
+  <si>
+    <t>people can only work at one company</t>
+  </si>
+  <si>
+    <t>each company has one or more people</t>
+  </si>
+  <si>
+    <t>class Person &lt; ActiveRecord::Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belongs_to :company, class_name: "Company", foreign_key: "company_id" </t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>class Company &lt; ActiveRecord::Base</t>
+  </si>
+  <si>
+    <t>has_many :people, class_name: "Person", foreign_key: "company_id"</t>
   </si>
 </sst>
 </file>
@@ -604,11 +625,12 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -789,7 +811,9 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -807,7 +831,9 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -843,7 +869,9 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -862,7 +890,9 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -879,7 +909,9 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -915,7 +947,9 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -934,7 +968,9 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -951,7 +987,9 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
